--- a/Utility_Files/Equip_Vocab.xlsx
+++ b/Utility_Files/Equip_Vocab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="331">
   <si>
     <t>ID</t>
   </si>
@@ -1008,7 +1008,10 @@
     <t>TTA_M234_Stirr</t>
   </si>
   <si>
-    <t>None</t>
+    <t>naa</t>
+  </si>
+  <si>
+    <t>MI</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D164"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1415,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1429,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1443,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1457,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1485,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1499,7 +1502,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1513,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,7 +1530,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1541,7 +1544,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1555,7 +1558,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1569,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1583,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1597,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1611,7 +1614,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1639,7 +1642,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1653,7 +1656,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1667,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1681,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1695,7 +1698,7 @@
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1709,7 +1712,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,7 +1726,7 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,7 +1740,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,7 +1754,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,7 +1768,7 @@
         <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +1782,7 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1793,7 +1796,7 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1807,7 +1810,7 @@
         <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1821,7 +1824,7 @@
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1835,7 +1838,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1849,7 +1852,7 @@
         <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1863,7 +1866,7 @@
         <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,7 +1880,7 @@
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1891,7 +1894,7 @@
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1905,7 +1908,7 @@
         <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1919,7 +1922,7 @@
         <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1933,7 +1936,7 @@
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1947,7 +1950,7 @@
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1961,7 +1964,7 @@
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1975,7 +1978,7 @@
         <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1989,7 +1992,7 @@
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2003,7 +2006,7 @@
         <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2017,7 +2020,7 @@
         <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2031,7 +2034,7 @@
         <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2045,7 +2048,7 @@
         <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2059,7 +2062,7 @@
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2073,7 +2076,7 @@
         <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,7 +2090,7 @@
         <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2101,7 +2104,7 @@
         <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2115,7 +2118,7 @@
         <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2129,7 +2132,7 @@
         <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,7 +2146,7 @@
         <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2157,7 +2160,7 @@
         <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2171,7 +2174,7 @@
         <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2185,7 +2188,7 @@
         <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2199,7 +2202,7 @@
         <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2213,7 +2216,7 @@
         <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2227,7 +2230,7 @@
         <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2241,7 +2244,7 @@
         <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2255,7 +2258,7 @@
         <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2269,7 +2272,7 @@
         <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2283,7 +2286,7 @@
         <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2297,7 +2300,7 @@
         <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2311,7 +2314,7 @@
         <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2325,7 +2328,7 @@
         <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2339,7 +2342,7 @@
         <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2353,7 +2356,7 @@
         <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2367,7 +2370,7 @@
         <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2381,7 +2384,7 @@
         <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2395,7 +2398,7 @@
         <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2409,7 +2412,7 @@
         <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2423,7 +2426,7 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2437,7 +2440,7 @@
         <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2451,7 +2454,7 @@
         <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2465,7 +2468,7 @@
         <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2479,7 +2482,7 @@
         <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2493,7 +2496,7 @@
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2507,7 +2510,7 @@
         <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2521,7 +2524,7 @@
         <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2535,7 +2538,7 @@
         <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2549,7 +2552,7 @@
         <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2563,7 +2566,7 @@
         <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2577,7 +2580,7 @@
         <v>172</v>
       </c>
       <c r="D86" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2591,7 +2594,7 @@
         <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2605,7 +2608,7 @@
         <v>176</v>
       </c>
       <c r="D88" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2619,7 +2622,7 @@
         <v>178</v>
       </c>
       <c r="D89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
         <v>180</v>
       </c>
       <c r="D90" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2647,7 +2650,7 @@
         <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2661,7 +2664,7 @@
         <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2675,7 +2678,7 @@
         <v>186</v>
       </c>
       <c r="D93" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2689,7 +2692,7 @@
         <v>188</v>
       </c>
       <c r="D94" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2703,7 +2706,7 @@
         <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2717,7 +2720,7 @@
         <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2731,7 +2734,7 @@
         <v>194</v>
       </c>
       <c r="D97" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2745,7 +2748,7 @@
         <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2759,7 +2762,7 @@
         <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2773,7 +2776,7 @@
         <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2787,7 +2790,7 @@
         <v>202</v>
       </c>
       <c r="D101" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2801,7 +2804,7 @@
         <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2815,7 +2818,7 @@
         <v>206</v>
       </c>
       <c r="D103" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2829,7 +2832,7 @@
         <v>208</v>
       </c>
       <c r="D104" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2843,7 +2846,7 @@
         <v>210</v>
       </c>
       <c r="D105" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2857,7 +2860,7 @@
         <v>212</v>
       </c>
       <c r="D106" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2871,7 +2874,7 @@
         <v>214</v>
       </c>
       <c r="D107" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2885,7 +2888,7 @@
         <v>216</v>
       </c>
       <c r="D108" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2899,7 +2902,7 @@
         <v>218</v>
       </c>
       <c r="D109" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2913,7 +2916,7 @@
         <v>220</v>
       </c>
       <c r="D110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2927,7 +2930,7 @@
         <v>222</v>
       </c>
       <c r="D111" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2941,7 +2944,7 @@
         <v>224</v>
       </c>
       <c r="D112" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2955,7 +2958,7 @@
         <v>226</v>
       </c>
       <c r="D113" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2969,7 +2972,7 @@
         <v>228</v>
       </c>
       <c r="D114" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2983,7 +2986,7 @@
         <v>230</v>
       </c>
       <c r="D115" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2997,7 +3000,7 @@
         <v>232</v>
       </c>
       <c r="D116" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3011,7 +3014,7 @@
         <v>234</v>
       </c>
       <c r="D117" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3025,7 +3028,7 @@
         <v>236</v>
       </c>
       <c r="D118" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3039,7 +3042,7 @@
         <v>238</v>
       </c>
       <c r="D119" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3053,7 +3056,7 @@
         <v>240</v>
       </c>
       <c r="D120" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3067,7 +3070,7 @@
         <v>242</v>
       </c>
       <c r="D121" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3081,7 +3084,7 @@
         <v>244</v>
       </c>
       <c r="D122" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3095,7 +3098,7 @@
         <v>246</v>
       </c>
       <c r="D123" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3109,7 +3112,7 @@
         <v>248</v>
       </c>
       <c r="D124" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3123,7 +3126,7 @@
         <v>250</v>
       </c>
       <c r="D125" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3137,7 +3140,7 @@
         <v>252</v>
       </c>
       <c r="D126" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3151,7 +3154,7 @@
         <v>254</v>
       </c>
       <c r="D127" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3165,7 +3168,7 @@
         <v>256</v>
       </c>
       <c r="D128" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3179,7 +3182,7 @@
         <v>258</v>
       </c>
       <c r="D129" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3193,7 +3196,7 @@
         <v>260</v>
       </c>
       <c r="D130" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3207,7 +3210,7 @@
         <v>262</v>
       </c>
       <c r="D131" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3221,7 +3224,7 @@
         <v>264</v>
       </c>
       <c r="D132" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3235,7 +3238,7 @@
         <v>266</v>
       </c>
       <c r="D133" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3249,7 +3252,7 @@
         <v>268</v>
       </c>
       <c r="D134" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3263,7 +3266,7 @@
         <v>270</v>
       </c>
       <c r="D135" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3277,7 +3280,7 @@
         <v>272</v>
       </c>
       <c r="D136" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3291,7 +3294,7 @@
         <v>274</v>
       </c>
       <c r="D137" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3305,7 +3308,7 @@
         <v>276</v>
       </c>
       <c r="D138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3319,7 +3322,7 @@
         <v>278</v>
       </c>
       <c r="D139" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3333,7 +3336,7 @@
         <v>280</v>
       </c>
       <c r="D140" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3347,7 +3350,7 @@
         <v>282</v>
       </c>
       <c r="D141" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3361,7 +3364,7 @@
         <v>284</v>
       </c>
       <c r="D142" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3375,7 +3378,7 @@
         <v>286</v>
       </c>
       <c r="D143" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3389,7 +3392,7 @@
         <v>288</v>
       </c>
       <c r="D144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3403,7 +3406,7 @@
         <v>290</v>
       </c>
       <c r="D145" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3417,7 +3420,7 @@
         <v>292</v>
       </c>
       <c r="D146" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3431,7 +3434,7 @@
         <v>294</v>
       </c>
       <c r="D147" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3445,7 +3448,7 @@
         <v>296</v>
       </c>
       <c r="D148" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3459,7 +3462,7 @@
         <v>298</v>
       </c>
       <c r="D149" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3473,7 +3476,7 @@
         <v>300</v>
       </c>
       <c r="D150" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3487,7 +3490,7 @@
         <v>302</v>
       </c>
       <c r="D151" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3501,7 +3504,7 @@
         <v>304</v>
       </c>
       <c r="D152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3515,7 +3518,7 @@
         <v>306</v>
       </c>
       <c r="D153" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3529,7 +3532,7 @@
         <v>308</v>
       </c>
       <c r="D154" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3543,7 +3546,7 @@
         <v>310</v>
       </c>
       <c r="D155" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3557,7 +3560,7 @@
         <v>312</v>
       </c>
       <c r="D156" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3571,7 +3574,7 @@
         <v>314</v>
       </c>
       <c r="D157" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3585,7 +3588,7 @@
         <v>316</v>
       </c>
       <c r="D158" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3599,7 +3602,7 @@
         <v>318</v>
       </c>
       <c r="D159" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3613,7 +3616,7 @@
         <v>320</v>
       </c>
       <c r="D160" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3627,7 +3630,7 @@
         <v>322</v>
       </c>
       <c r="D161" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3641,7 +3644,7 @@
         <v>324</v>
       </c>
       <c r="D162" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3655,7 +3658,7 @@
         <v>326</v>
       </c>
       <c r="D163" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3669,7 +3672,21 @@
         <v>328</v>
       </c>
       <c r="D164" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
         <v>329</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
